--- a/pred_ohlcv/54/2019-11-13 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-13 DVP ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>2720.3899</v>
+        <v>458.5805</v>
       </c>
       <c r="G2" t="n">
-        <v>10.83833333333336</v>
+        <v>10.83166666666669</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>2448.3509</v>
+        <v>2720.3899</v>
       </c>
       <c r="G3" t="n">
-        <v>10.84500000000003</v>
+        <v>10.83833333333336</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>11</v>
@@ -469,15 +480,18 @@
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>106817.9136</v>
+        <v>2448.3509</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85166666666669</v>
+        <v>10.84500000000003</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C5" t="n">
         <v>11</v>
@@ -495,15 +509,18 @@
         <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F5" t="n">
-        <v>158749.9337</v>
+        <v>106817.9136</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85666666666669</v>
+        <v>10.85166666666669</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>261296.2027</v>
+        <v>158749.9337</v>
       </c>
       <c r="G6" t="n">
-        <v>10.86500000000003</v>
+        <v>10.85666666666669</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F7" t="n">
-        <v>200839.3995</v>
+        <v>261296.2027</v>
       </c>
       <c r="G7" t="n">
-        <v>10.87166666666669</v>
+        <v>10.86500000000003</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>14403.8046</v>
+        <v>200839.3995</v>
       </c>
       <c r="G8" t="n">
-        <v>10.88000000000002</v>
+        <v>10.87166666666669</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>11.1</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D9" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="n">
         <v>11.1</v>
       </c>
       <c r="F9" t="n">
-        <v>111706.1823</v>
+        <v>14403.8046</v>
       </c>
       <c r="G9" t="n">
-        <v>10.89000000000002</v>
+        <v>10.88000000000002</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C10" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F10" t="n">
-        <v>2100</v>
+        <v>111706.1823</v>
       </c>
       <c r="G10" t="n">
-        <v>10.90166666666669</v>
+        <v>10.89000000000002</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F11" t="n">
-        <v>27746.5522</v>
+        <v>2100</v>
       </c>
       <c r="G11" t="n">
-        <v>10.91000000000002</v>
+        <v>10.90166666666669</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F12" t="n">
-        <v>19713.493</v>
+        <v>27746.5522</v>
       </c>
       <c r="G12" t="n">
-        <v>10.92000000000002</v>
+        <v>10.91000000000002</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>11.2</v>
       </c>
       <c r="F13" t="n">
-        <v>8033.0592</v>
+        <v>19713.493</v>
       </c>
       <c r="G13" t="n">
-        <v>10.93000000000002</v>
+        <v>10.92000000000002</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>11.2</v>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>8033.0592</v>
       </c>
       <c r="G14" t="n">
-        <v>10.94000000000002</v>
+        <v>10.93000000000002</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C15" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D15" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E15" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F15" t="n">
-        <v>470451.651891228</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>10.95333333333336</v>
+        <v>10.94000000000002</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C16" t="n">
         <v>11.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11.2</v>
       </c>
       <c r="D16" t="n">
         <v>11.4</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1111</v>
+        <v>470451.651891228</v>
       </c>
       <c r="G16" t="n">
-        <v>10.96500000000002</v>
+        <v>10.95333333333336</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,10 +848,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C17" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D17" t="n">
         <v>11.4</v>
@@ -810,13 +860,16 @@
         <v>11.2</v>
       </c>
       <c r="F17" t="n">
-        <v>29519.1176</v>
+        <v>1111</v>
       </c>
       <c r="G17" t="n">
-        <v>10.97833333333336</v>
+        <v>10.96500000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C18" t="n">
         <v>11.3</v>
       </c>
       <c r="D18" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="E18" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F18" t="n">
-        <v>55763.7727</v>
+        <v>29519.1176</v>
       </c>
       <c r="G18" t="n">
-        <v>10.99000000000002</v>
+        <v>10.97833333333336</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>11.3</v>
       </c>
       <c r="F19" t="n">
-        <v>49834.3778</v>
+        <v>55763.7727</v>
       </c>
       <c r="G19" t="n">
-        <v>11.00333333333336</v>
+        <v>10.99000000000002</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E20" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F20" t="n">
-        <v>897.75</v>
+        <v>49834.3778</v>
       </c>
       <c r="G20" t="n">
-        <v>11.01166666666669</v>
+        <v>11.00333333333336</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E21" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2442.3674</v>
+        <v>897.75</v>
       </c>
       <c r="G21" t="n">
-        <v>11.02500000000002</v>
+        <v>11.01166666666669</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D22" t="n">
         <v>11.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F22" t="n">
-        <v>866925.7664</v>
+        <v>2442.3674</v>
       </c>
       <c r="G22" t="n">
-        <v>11.03500000000002</v>
+        <v>11.02500000000002</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -960,18 +1028,21 @@
         <v>11.2</v>
       </c>
       <c r="D23" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E23" t="n">
         <v>11.2</v>
       </c>
       <c r="F23" t="n">
-        <v>382054.2748</v>
+        <v>866925.7664</v>
       </c>
       <c r="G23" t="n">
-        <v>11.04333333333335</v>
+        <v>11.03500000000002</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>11.2</v>
       </c>
       <c r="F24" t="n">
-        <v>369714.3011</v>
+        <v>382054.2748</v>
       </c>
       <c r="G24" t="n">
-        <v>11.05000000000002</v>
+        <v>11.04333333333335</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>11.2</v>
       </c>
       <c r="F25" t="n">
-        <v>46356.1353</v>
+        <v>369714.3011</v>
       </c>
       <c r="G25" t="n">
-        <v>11.05333333333336</v>
+        <v>11.05000000000002</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>11.2</v>
       </c>
       <c r="F26" t="n">
-        <v>79173.3536</v>
+        <v>46356.1353</v>
       </c>
       <c r="G26" t="n">
-        <v>11.05666666666669</v>
+        <v>11.05333333333336</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>11.2</v>
       </c>
       <c r="F27" t="n">
-        <v>29393</v>
+        <v>79173.3536</v>
       </c>
       <c r="G27" t="n">
         <v>11.05666666666669</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E28" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2366.0304</v>
+        <v>29393</v>
       </c>
       <c r="G28" t="n">
-        <v>11.06666666666669</v>
+        <v>11.05666666666669</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F29" t="n">
-        <v>13054.1266</v>
+        <v>2366.0304</v>
       </c>
       <c r="G29" t="n">
-        <v>11.07000000000002</v>
+        <v>11.06666666666669</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>11.2</v>
       </c>
       <c r="F30" t="n">
-        <v>101108.8301</v>
+        <v>13054.1266</v>
       </c>
       <c r="G30" t="n">
-        <v>11.07333333333336</v>
+        <v>11.07000000000002</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>11.2</v>
       </c>
       <c r="F31" t="n">
-        <v>2110.6113</v>
+        <v>101108.8301</v>
       </c>
       <c r="G31" t="n">
-        <v>11.07666666666669</v>
+        <v>11.07333333333336</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>11.2</v>
       </c>
       <c r="C32" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D32" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E32" t="n">
         <v>11.2</v>
       </c>
       <c r="F32" t="n">
-        <v>23902.6738</v>
+        <v>2110.6113</v>
       </c>
       <c r="G32" t="n">
-        <v>11.08500000000003</v>
+        <v>11.07666666666669</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C33" t="n">
         <v>11.3</v>
@@ -1223,15 +1321,18 @@
         <v>11.3</v>
       </c>
       <c r="E33" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F33" t="n">
-        <v>2589.5984</v>
+        <v>23902.6738</v>
       </c>
       <c r="G33" t="n">
-        <v>11.09500000000002</v>
+        <v>11.08500000000003</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="C34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E34" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="F34" t="n">
-        <v>3278.9791</v>
+        <v>2589.5984</v>
       </c>
       <c r="G34" t="n">
-        <v>11.09833333333336</v>
+        <v>11.09500000000002</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>11.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10043.799</v>
+        <v>3278.9791</v>
       </c>
       <c r="G35" t="n">
-        <v>11.10166666666669</v>
+        <v>11.09833333333336</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E36" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>10043.799</v>
       </c>
       <c r="G36" t="n">
-        <v>11.10666666666669</v>
+        <v>11.10166666666669</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>11.3</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>11.11166666666669</v>
+        <v>11.10666666666669</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E38" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="F38" t="n">
-        <v>2510.9497</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>11.11333333333336</v>
+        <v>11.11166666666669</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>11.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1541.4184</v>
+        <v>2510.9497</v>
       </c>
       <c r="G39" t="n">
         <v>11.11333333333336</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>11.2</v>
       </c>
       <c r="F40" t="n">
-        <v>3784.2843</v>
+        <v>1541.4184</v>
       </c>
       <c r="G40" t="n">
-        <v>11.11666666666669</v>
+        <v>11.11333333333336</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>11.2</v>
       </c>
       <c r="F41" t="n">
-        <v>20942.5124</v>
+        <v>3784.2843</v>
       </c>
       <c r="G41" t="n">
-        <v>11.11833333333336</v>
+        <v>11.11666666666669</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E42" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>20942.5124</v>
       </c>
       <c r="G42" t="n">
         <v>11.11833333333336</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>11.1</v>
       </c>
       <c r="F43" t="n">
-        <v>471.6981</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="n">
         <v>11.11833333333336</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>11.1</v>
       </c>
       <c r="F44" t="n">
-        <v>259450.6177</v>
+        <v>471.6981</v>
       </c>
       <c r="G44" t="n">
         <v>11.11833333333336</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E45" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F45" t="n">
-        <v>3204.4199</v>
+        <v>259450.6177</v>
       </c>
       <c r="G45" t="n">
-        <v>11.12166666666669</v>
+        <v>11.11833333333336</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>11.2</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>3204.4199</v>
       </c>
       <c r="G46" t="n">
-        <v>11.12500000000003</v>
+        <v>11.12166666666669</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="E47" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F47" t="n">
-        <v>150000</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
         <v>11.12500000000003</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>11.1</v>
       </c>
       <c r="F48" t="n">
-        <v>17500.8592</v>
+        <v>150000</v>
       </c>
       <c r="G48" t="n">
-        <v>11.12666666666669</v>
+        <v>11.12500000000003</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>11.1</v>
       </c>
       <c r="F49" t="n">
-        <v>4248.7319</v>
+        <v>17500.8592</v>
       </c>
       <c r="G49" t="n">
-        <v>11.12833333333336</v>
+        <v>11.12666666666669</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F50" t="n">
-        <v>54177.0758</v>
+        <v>4248.7319</v>
       </c>
       <c r="G50" t="n">
         <v>11.12833333333336</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>11</v>
       </c>
       <c r="C51" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E51" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>637851.2332</v>
+        <v>54177.0758</v>
       </c>
       <c r="G51" t="n">
-        <v>11.13166666666669</v>
+        <v>11.12833333333336</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,10 +1863,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D52" t="n">
         <v>11.1</v>
@@ -1720,12 +1875,15 @@
         <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1166.55</v>
+        <v>637851.2332</v>
       </c>
       <c r="G52" t="n">
         <v>11.13166666666669</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C53" t="n">
         <v>10.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E53" t="n">
         <v>10.9</v>
       </c>
       <c r="F53" t="n">
-        <v>1055.45</v>
+        <v>1166.55</v>
       </c>
       <c r="G53" t="n">
         <v>11.13166666666669</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D54" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>1055.45</v>
       </c>
       <c r="G54" t="n">
-        <v>11.1366666666667</v>
+        <v>11.13166666666669</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C55" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F55" t="n">
-        <v>48792.0865</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>11.13500000000003</v>
+        <v>11.1366666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D56" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F56" t="n">
-        <v>50</v>
+        <v>48792.0865</v>
       </c>
       <c r="G56" t="n">
-        <v>11.1366666666667</v>
+        <v>11.13500000000003</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C57" t="n">
         <v>11.1</v>
@@ -1847,15 +2017,18 @@
         <v>11.1</v>
       </c>
       <c r="E57" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="F57" t="n">
-        <v>9526.936900000001</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>11.14000000000003</v>
+        <v>11.1366666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F58" t="n">
-        <v>80000</v>
+        <v>9526.936900000001</v>
       </c>
       <c r="G58" t="n">
-        <v>11.1416666666667</v>
+        <v>11.14000000000003</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>80000</v>
       </c>
       <c r="G59" t="n">
-        <v>11.14333333333336</v>
+        <v>11.1416666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F60" t="n">
-        <v>117.3801</v>
+        <v>50</v>
       </c>
       <c r="G60" t="n">
         <v>11.14333333333336</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>117.3801</v>
       </c>
       <c r="G61" t="n">
-        <v>11.14500000000003</v>
+        <v>11.14333333333336</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="C62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="F62" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>11.1466666666667</v>
+        <v>11.14500000000003</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C63" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="D63" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E63" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="F63" t="n">
-        <v>661611.0432</v>
+        <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>11.14333333333336</v>
+        <v>11.1466666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F64" t="n">
-        <v>5190.7972</v>
+        <v>661611.0432</v>
       </c>
       <c r="G64" t="n">
         <v>11.14333333333336</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>5190.7972</v>
       </c>
       <c r="G65" t="n">
         <v>11.14333333333336</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>3834</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>11.13833333333336</v>
+        <v>11.14333333333336</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C67" t="n">
         <v>10.8</v>
       </c>
       <c r="D67" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E67" t="n">
         <v>10.8</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>3834</v>
       </c>
       <c r="G67" t="n">
-        <v>11.13500000000003</v>
+        <v>11.13833333333336</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>10.8</v>
       </c>
       <c r="C68" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E68" t="n">
         <v>10.8</v>
       </c>
       <c r="F68" t="n">
-        <v>2512.6937</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>11.13333333333336</v>
+        <v>11.13500000000003</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C69" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F69" t="n">
-        <v>31585.6115</v>
+        <v>2512.6937</v>
       </c>
       <c r="G69" t="n">
-        <v>11.12833333333336</v>
+        <v>11.13333333333336</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E70" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F70" t="n">
-        <v>48018.1718</v>
+        <v>31585.6115</v>
       </c>
       <c r="G70" t="n">
-        <v>11.12000000000003</v>
+        <v>11.12833333333336</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E71" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F71" t="n">
-        <v>5364.5249</v>
+        <v>48018.1718</v>
       </c>
       <c r="G71" t="n">
-        <v>11.11666666666669</v>
+        <v>11.12000000000003</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E72" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F72" t="n">
-        <v>38013.6084</v>
+        <v>5364.5249</v>
       </c>
       <c r="G72" t="n">
-        <v>11.11000000000002</v>
+        <v>11.11666666666669</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>10.8</v>
       </c>
       <c r="C73" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D73" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E73" t="n">
         <v>10.8</v>
       </c>
       <c r="F73" t="n">
-        <v>13431.9835</v>
+        <v>38013.6084</v>
       </c>
       <c r="G73" t="n">
-        <v>11.10500000000002</v>
+        <v>11.11000000000002</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C74" t="n">
         <v>10.9</v>
@@ -2289,15 +2510,18 @@
         <v>10.9</v>
       </c>
       <c r="E74" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1510.9297</v>
+        <v>13431.9835</v>
       </c>
       <c r="G74" t="n">
-        <v>11.10000000000002</v>
+        <v>11.10500000000002</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E75" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F75" t="n">
-        <v>58410.4079</v>
+        <v>1510.9297</v>
       </c>
       <c r="G75" t="n">
-        <v>11.09000000000002</v>
+        <v>11.10000000000002</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>10.8</v>
       </c>
       <c r="F76" t="n">
-        <v>78762.8468</v>
+        <v>58410.4079</v>
       </c>
       <c r="G76" t="n">
-        <v>11.08333333333335</v>
+        <v>11.09000000000002</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>10.8</v>
       </c>
       <c r="F77" t="n">
-        <v>20000</v>
+        <v>78762.8468</v>
       </c>
       <c r="G77" t="n">
-        <v>11.07500000000002</v>
+        <v>11.08333333333335</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E78" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F78" t="n">
-        <v>24683.5406</v>
+        <v>20000</v>
       </c>
       <c r="G78" t="n">
-        <v>11.06833333333335</v>
+        <v>11.07500000000002</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>10.9</v>
       </c>
       <c r="F79" t="n">
-        <v>166607.7778</v>
+        <v>24683.5406</v>
       </c>
       <c r="G79" t="n">
-        <v>11.06166666666669</v>
+        <v>11.06833333333335</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>10.9</v>
       </c>
       <c r="F80" t="n">
-        <v>5706.0814</v>
+        <v>166607.7778</v>
       </c>
       <c r="G80" t="n">
-        <v>11.05833333333335</v>
+        <v>11.06166666666669</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>10.9</v>
       </c>
       <c r="F81" t="n">
-        <v>4908.7309</v>
+        <v>5706.0814</v>
       </c>
       <c r="G81" t="n">
-        <v>11.05166666666669</v>
+        <v>11.05833333333335</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>10.9</v>
       </c>
       <c r="F82" t="n">
-        <v>39818.1483</v>
+        <v>4908.7309</v>
       </c>
       <c r="G82" t="n">
-        <v>11.04666666666669</v>
+        <v>11.05166666666669</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>39818.1483</v>
       </c>
       <c r="G83" t="n">
-        <v>11.04333333333335</v>
+        <v>11.04666666666669</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C84" t="n">
         <v>11</v>
@@ -2549,15 +2800,18 @@
         <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>11.04000000000002</v>
+        <v>11.04333333333335</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C85" t="n">
         <v>11</v>
@@ -2575,15 +2829,18 @@
         <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5000</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n">
-        <v>11.03666666666668</v>
+        <v>11.04000000000002</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>11</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G86" t="n">
-        <v>11.03333333333335</v>
+        <v>11.03666666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>11.02666666666668</v>
+        <v>11.03333333333335</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="F88" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>11.02166666666668</v>
+        <v>11.02666666666668</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>18516.4227</v>
+        <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>11.01500000000001</v>
+        <v>11.02166666666668</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E90" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>18516.4227</v>
       </c>
       <c r="G90" t="n">
-        <v>11.01000000000001</v>
+        <v>11.01500000000001</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C91" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D91" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E91" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F91" t="n">
-        <v>368554.1806</v>
+        <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>11.00166666666668</v>
+        <v>11.01000000000001</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>10.7</v>
       </c>
       <c r="F92" t="n">
-        <v>41814.8355</v>
+        <v>368554.1806</v>
       </c>
       <c r="G92" t="n">
-        <v>10.99166666666668</v>
+        <v>11.00166666666668</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,7 +3055,7 @@
         <v>10.8</v>
       </c>
       <c r="C93" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D93" t="n">
         <v>10.8</v>
@@ -2786,12 +3064,15 @@
         <v>10.7</v>
       </c>
       <c r="F93" t="n">
-        <v>44339.182</v>
+        <v>41814.8355</v>
       </c>
       <c r="G93" t="n">
-        <v>10.98333333333335</v>
+        <v>10.99166666666668</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>10.8</v>
       </c>
       <c r="C94" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D94" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E94" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F94" t="n">
-        <v>7931.8048</v>
+        <v>44339.182</v>
       </c>
       <c r="G94" t="n">
-        <v>10.98000000000001</v>
+        <v>10.98333333333335</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,7 +3110,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C95" t="n">
         <v>10.9</v>
@@ -2835,15 +3119,18 @@
         <v>10.9</v>
       </c>
       <c r="E95" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F95" t="n">
-        <v>30917.43119266055</v>
+        <v>7931.8048</v>
       </c>
       <c r="G95" t="n">
-        <v>10.97666666666668</v>
+        <v>10.98000000000001</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>10.9</v>
       </c>
       <c r="F96" t="n">
-        <v>2375.2572</v>
+        <v>30917.43119266055</v>
       </c>
       <c r="G96" t="n">
-        <v>10.97000000000001</v>
+        <v>10.97666666666668</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>10.9</v>
       </c>
       <c r="F97" t="n">
-        <v>9127.8812</v>
+        <v>2375.2572</v>
       </c>
       <c r="G97" t="n">
-        <v>10.96333333333335</v>
+        <v>10.97000000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E98" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F98" t="n">
-        <v>3221</v>
+        <v>9127.8812</v>
       </c>
       <c r="G98" t="n">
-        <v>10.95666666666668</v>
+        <v>10.96333333333335</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>10.8</v>
       </c>
       <c r="C99" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D99" t="n">
         <v>10.8</v>
       </c>
       <c r="E99" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F99" t="n">
-        <v>30917.4312</v>
+        <v>3221</v>
       </c>
       <c r="G99" t="n">
-        <v>10.94833333333335</v>
+        <v>10.95666666666668</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C100" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D100" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E100" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F100" t="n">
-        <v>826.9864</v>
+        <v>30917.4312</v>
       </c>
       <c r="G100" t="n">
-        <v>10.94333333333335</v>
+        <v>10.94833333333335</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>10.9</v>
       </c>
       <c r="F101" t="n">
-        <v>51622.7888</v>
+        <v>826.9864</v>
       </c>
       <c r="G101" t="n">
-        <v>10.93833333333334</v>
+        <v>10.94333333333335</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>10.9</v>
       </c>
       <c r="F102" t="n">
-        <v>39119.7757</v>
+        <v>51622.7888</v>
       </c>
       <c r="G102" t="n">
-        <v>10.93500000000001</v>
+        <v>10.93833333333334</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>10.9</v>
       </c>
       <c r="F103" t="n">
-        <v>7443.7017</v>
+        <v>39119.7757</v>
       </c>
       <c r="G103" t="n">
-        <v>10.93166666666668</v>
+        <v>10.93500000000001</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E104" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F104" t="n">
-        <v>2077.1203</v>
+        <v>7443.7017</v>
       </c>
       <c r="G104" t="n">
-        <v>10.92666666666667</v>
+        <v>10.93166666666668</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E105" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F105" t="n">
-        <v>166657.7778</v>
+        <v>2077.1203</v>
       </c>
       <c r="G105" t="n">
-        <v>10.91833333333334</v>
+        <v>10.92666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="C106" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D106" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E106" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F106" t="n">
-        <v>350</v>
+        <v>166657.7778</v>
       </c>
       <c r="G106" t="n">
-        <v>10.91333333333334</v>
+        <v>10.91833333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="C107" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D107" t="n">
         <v>10.9</v>
       </c>
       <c r="E107" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F107" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="G107" t="n">
-        <v>10.90666666666667</v>
+        <v>10.91333333333334</v>
       </c>
       <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D108" t="n">
         <v>10.9</v>
       </c>
       <c r="E108" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F108" t="n">
-        <v>1950</v>
+        <v>600</v>
       </c>
       <c r="G108" t="n">
-        <v>10.90333333333334</v>
+        <v>10.90666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>10.9</v>
       </c>
       <c r="F109" t="n">
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="G109" t="n">
-        <v>10.90000000000001</v>
+        <v>10.90333333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E110" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="G110" t="n">
-        <v>10.89500000000001</v>
+        <v>10.90000000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="C111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="D111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="E111" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="F111" t="n">
-        <v>1365</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>10.89166666666667</v>
+        <v>10.89500000000001</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>10.9</v>
       </c>
       <c r="F112" t="n">
-        <v>130</v>
+        <v>1365</v>
       </c>
       <c r="G112" t="n">
         <v>10.89166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="C113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E113" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="F113" t="n">
-        <v>47699.9531</v>
+        <v>130</v>
       </c>
       <c r="G113" t="n">
-        <v>10.89000000000001</v>
+        <v>10.89166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="C114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E114" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="F114" t="n">
-        <v>325</v>
+        <v>47699.9531</v>
       </c>
       <c r="G114" t="n">
-        <v>10.88666666666667</v>
+        <v>10.89000000000001</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>10.9</v>
       </c>
       <c r="F115" t="n">
-        <v>12508.7985</v>
+        <v>325</v>
       </c>
       <c r="G115" t="n">
         <v>10.88666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>10.9</v>
       </c>
       <c r="F116" t="n">
-        <v>32125.5827</v>
+        <v>12508.7985</v>
       </c>
       <c r="G116" t="n">
-        <v>10.88333333333334</v>
+        <v>10.88666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C117" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="D117" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F117" t="n">
-        <v>106742.77</v>
+        <v>32125.5827</v>
       </c>
       <c r="G117" t="n">
         <v>10.88333333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E118" t="n">
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>19253.3006</v>
+        <v>106742.77</v>
       </c>
       <c r="G118" t="n">
         <v>10.88333333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>2861.9096</v>
+        <v>19253.3006</v>
       </c>
       <c r="G119" t="n">
-        <v>10.88166666666667</v>
+        <v>10.88333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>45341.1562</v>
+        <v>2861.9096</v>
       </c>
       <c r="G120" t="n">
         <v>10.88166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>52925.5197</v>
+        <v>45341.1562</v>
       </c>
       <c r="G121" t="n">
-        <v>10.88333333333334</v>
+        <v>10.88166666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>11</v>
       </c>
       <c r="F122" t="n">
-        <v>25411.488</v>
+        <v>52925.5197</v>
       </c>
       <c r="G122" t="n">
-        <v>10.88166666666667</v>
+        <v>10.88333333333334</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
-        <v>325</v>
+        <v>25411.488</v>
       </c>
       <c r="G123" t="n">
-        <v>10.88666666666667</v>
+        <v>10.88166666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,16 +3954,16 @@
         <v>11.1</v>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D124" t="n">
         <v>11.1</v>
       </c>
       <c r="E124" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1514.9761</v>
+        <v>325</v>
       </c>
       <c r="G124" t="n">
         <v>10.88666666666667</v>
@@ -3600,524 +3971,7 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>11</v>
-      </c>
-      <c r="C125" t="n">
-        <v>11</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11</v>
-      </c>
-      <c r="E125" t="n">
-        <v>11</v>
-      </c>
-      <c r="F125" t="n">
-        <v>2103.5275</v>
-      </c>
-      <c r="G125" t="n">
-        <v>10.88666666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>11</v>
-      </c>
-      <c r="C126" t="n">
-        <v>11</v>
-      </c>
-      <c r="D126" t="n">
-        <v>11</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11</v>
-      </c>
-      <c r="F126" t="n">
-        <v>38117.323</v>
-      </c>
-      <c r="G126" t="n">
-        <v>10.89000000000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>11</v>
-      </c>
-      <c r="C127" t="n">
-        <v>11</v>
-      </c>
-      <c r="D127" t="n">
-        <v>11</v>
-      </c>
-      <c r="E127" t="n">
-        <v>11</v>
-      </c>
-      <c r="F127" t="n">
-        <v>39423.7701</v>
-      </c>
-      <c r="G127" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>11</v>
-      </c>
-      <c r="C128" t="n">
-        <v>11</v>
-      </c>
-      <c r="D128" t="n">
-        <v>11</v>
-      </c>
-      <c r="E128" t="n">
-        <v>11</v>
-      </c>
-      <c r="F128" t="n">
-        <v>336.7571</v>
-      </c>
-      <c r="G128" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>82001.4057</v>
-      </c>
-      <c r="G129" t="n">
-        <v>10.89166666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8741.158799999999</v>
-      </c>
-      <c r="G130" t="n">
-        <v>10.89166666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>11</v>
-      </c>
-      <c r="C131" t="n">
-        <v>11</v>
-      </c>
-      <c r="D131" t="n">
-        <v>11</v>
-      </c>
-      <c r="E131" t="n">
-        <v>11</v>
-      </c>
-      <c r="F131" t="n">
-        <v>514.7839</v>
-      </c>
-      <c r="G131" t="n">
-        <v>10.89333333333334</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>11</v>
-      </c>
-      <c r="C132" t="n">
-        <v>11</v>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11</v>
-      </c>
-      <c r="F132" t="n">
-        <v>17796.771</v>
-      </c>
-      <c r="G132" t="n">
-        <v>10.89666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>46</v>
-      </c>
-      <c r="G133" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>176298.5073</v>
-      </c>
-      <c r="G134" t="n">
-        <v>10.90333333333334</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>58667.6729</v>
-      </c>
-      <c r="G135" t="n">
-        <v>10.91000000000001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>146</v>
-      </c>
-      <c r="G136" t="n">
-        <v>10.91666666666668</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11</v>
-      </c>
-      <c r="D137" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11</v>
-      </c>
-      <c r="F137" t="n">
-        <v>59771.0202</v>
-      </c>
-      <c r="G137" t="n">
-        <v>10.92000000000001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>11</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11</v>
-      </c>
-      <c r="D138" t="n">
-        <v>11</v>
-      </c>
-      <c r="E138" t="n">
-        <v>11</v>
-      </c>
-      <c r="F138" t="n">
-        <v>145250.2244</v>
-      </c>
-      <c r="G138" t="n">
-        <v>10.92166666666668</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>45</v>
-      </c>
-      <c r="G139" t="n">
-        <v>10.92666666666668</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2467.9096</v>
-      </c>
-      <c r="G140" t="n">
-        <v>10.93166666666668</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>10.93666666666668</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>11</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11</v>
-      </c>
-      <c r="F142" t="n">
-        <v>8903.7788</v>
-      </c>
-      <c r="G142" t="n">
-        <v>10.93833333333335</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>46</v>
-      </c>
-      <c r="G143" t="n">
-        <v>10.94000000000002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7984.2344</v>
-      </c>
-      <c r="G144" t="n">
-        <v>10.94166666666668</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
